--- a/work/2I&SMA产品接口规范@v2.4-20180119.xlsx
+++ b/work/2I&SMA产品接口规范@v2.4-20180119.xlsx
@@ -2312,7 +2312,7 @@
   <dimension ref="A1:D71"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="A3" sqref="A3:D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>

--- a/work/2I&SMA产品接口规范@v2.4-20180119.xlsx
+++ b/work/2I&SMA产品接口规范@v2.4-20180119.xlsx
@@ -15,7 +15,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">产品编码!#REF!</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="152511" concurrentCalc="0"/>
 </workbook>
 </file>
 
@@ -2312,7 +2312,7 @@
   <dimension ref="A1:D71"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:D4"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>

--- a/work/2I&SMA产品接口规范@v2.4-20180119.xlsx
+++ b/work/2I&SMA产品接口规范@v2.4-20180119.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="523" uniqueCount="453">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="568" uniqueCount="498">
   <si>
     <t>字段</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -1411,32 +1411,6 @@
   </si>
   <si>
     <t>魅友卡（1元日租）</t>
-  </si>
-  <si>
-    <t>订单状态描述，
-发货退单
-订单处理退单
-客户拒收退单
-待支付
-待分配
-待处理
-处理中
-待发货
-发货中
-物流在途
-未签收
-成功关闭
-待分配退单
-待开户
-已签收
-系统退单
-待支付退单
-待流程匹配
-已退单
-待自动审单
-待人工审单
-审单退单</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>VARCHAR2(50)</t>
@@ -1683,6 +1657,169 @@
   </si>
   <si>
     <t>小摩王卡</t>
+  </si>
+  <si>
+    <t>订单状态描述，
+发货退单
+订单处理退单
+客户拒收退单
+待支付
+待分配
+待处理
+处理中
+待发货
+发货中
+物流在途
+未签收
+成功关闭
+待分配退单
+待开户
+已签收
+系统退单
+待支付退单
+待流程匹配
+已退单
+待自动审单
+待人工审单
+审单退单</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>order_id                string                  正式订单号:订单号，意向单流程：转化为正式单的订单号，非意向单流程：下单时，生成的订单号</t>
+  </si>
+  <si>
+    <t>order_date              string                  订单时间:转化为正式单的时间或者下单时间</t>
+  </si>
+  <si>
+    <t xml:space="preserve">prov_id                 string                  省分                  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">area_id                 string                  地市                  </t>
+  </si>
+  <si>
+    <t>pay_charge              string                  商城实收:用户实际支付,不包含折扣和优惠等</t>
+  </si>
+  <si>
+    <t xml:space="preserve">charge                  string                  商城应收:商品价格，包含折扣和优惠等  </t>
+  </si>
+  <si>
+    <t>order_status            string                  订单状态:订单状态描述，待人工审单、物流在途、成功关闭退单等</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cust_name               string                  客户姓名                </t>
+  </si>
+  <si>
+    <t xml:space="preserve">card_id                 string                  证件号码                </t>
+  </si>
+  <si>
+    <t xml:space="preserve">order_device_number     string                  预约号码                </t>
+  </si>
+  <si>
+    <t xml:space="preserve">sex                     string                  性别                  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">age                     string                  年龄                  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">product_name            string                  套餐名称                </t>
+  </si>
+  <si>
+    <t xml:space="preserve">goods_name              string                  商品名称                </t>
+  </si>
+  <si>
+    <t xml:space="preserve">device_number           string                  订购号码:商城预占号码，即入网号码   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">delivery_addr           string                  配送地址                </t>
+  </si>
+  <si>
+    <t xml:space="preserve">delivery_city_no        string                  配送区县                </t>
+  </si>
+  <si>
+    <t xml:space="preserve">logistics_supplier      string                  物流公司                </t>
+  </si>
+  <si>
+    <t xml:space="preserve">logistics_id            string                  物流单号                </t>
+  </si>
+  <si>
+    <t>send_date               string                  发货时间:发货完成 或物流在途 时间，优先取发货完成时间，如无发货完成时间，则取第一次物流在途时间</t>
+  </si>
+  <si>
+    <t>logistics_status        string                  物流跟踪:物流状态 ORDE:下单成功 OFAL:下单失败(物流公司无法配送) CANL:申请取消订单 TAKE:揽收成功(物流公司取件成功) TFAL:揽收失败 OWAY:出门投递 SIGN:签收成功 FAIL:签收失败 注：这个数据经常延迟 缺失</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sign_date               string                  签收时间                </t>
+  </si>
+  <si>
+    <t>activate_status         string                  激活状态:已激活 未激活 激活失败 无需激活</t>
+  </si>
+  <si>
+    <t>audit_status            string                  意向单转人工:意向单环节转人工审核，目前已取消，王卡审核结果编码：0-审核成功；1-客户异常；2-国政通异常；3-其他异常</t>
+  </si>
+  <si>
+    <t xml:space="preserve">activate_date           string                  激活时间                </t>
+  </si>
+  <si>
+    <t xml:space="preserve">cust_ip                 string                  客户IP                </t>
+  </si>
+  <si>
+    <t xml:space="preserve">audit_remarks           string                  审单人员备注              </t>
+  </si>
+  <si>
+    <t xml:space="preserve">order_back_reason       string                  退单原因                </t>
+  </si>
+  <si>
+    <t xml:space="preserve">charge_back_reason      string                  退款时间                </t>
+  </si>
+  <si>
+    <t>sms_detail              string                  短信明细:激活环节人工审核不通过时，发送短信明细</t>
+  </si>
+  <si>
+    <t xml:space="preserve">is_send                 string                  是否发货)是/否)           </t>
+  </si>
+  <si>
+    <t xml:space="preserve">is_acti_to_oper_audit   string                  激活待人工审单(是/否)        </t>
+  </si>
+  <si>
+    <t>is_acti_to_oper         string                  激活转人工(是/否) 激活环节转人工，此字段目前不准确，后台落值不准确，证卡照校验结果</t>
+  </si>
+  <si>
+    <t xml:space="preserve">is_back_order           string                  是否退单                </t>
+  </si>
+  <si>
+    <t xml:space="preserve">call_dur                string                  通话时长                </t>
+  </si>
+  <si>
+    <t xml:space="preserve">sms_num                 string                  短信条数                </t>
+  </si>
+  <si>
+    <t xml:space="preserve">tencent_score           string                  腾讯评分:危险性            </t>
+  </si>
+  <si>
+    <t xml:space="preserve">activate_openid         string                  激活openID            </t>
+  </si>
+  <si>
+    <t xml:space="preserve">activate_channel_no     string                  激活渠道                </t>
+  </si>
+  <si>
+    <t xml:space="preserve">dev_no                  string                  发展人                 </t>
+  </si>
+  <si>
+    <t>order_openid            string                  下单openID:腾讯用户下单的openID，腾讯专属</t>
+  </si>
+  <si>
+    <t>order_channel_no        string                  下单渠道:腾讯用户下单的渠道，见sheet2腾讯渠道编码，腾讯专属</t>
+  </si>
+  <si>
+    <t xml:space="preserve">product_id              string                  产品ID  </t>
+  </si>
+  <si>
+    <t>product_type            string                  卡项目:腾讯 T 、滴滴 D、 蚂蚁 M、 招行Z 、 百度 B 、 微博卡  V  、百度女神卡 BB 、 畅淘卡 Q、哔哩哔哩卡 BL、映客卡 Y、饿了么饿卡 EL、饿了么锋卡 FN、招牛联卡 ZN、运满满 YM、今日头条 JR、钉钉 AD、美团 MT, 卡项目后续会继续增加，电商将会传阅通知信息化部门增加</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>is_valid_order          string                  是否有效订单(是/否) 有效订单：在线支付已支付，货到付款未退单</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2309,10 +2446,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D71"/>
+  <dimension ref="A1:E71"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView tabSelected="1" topLeftCell="B22" workbookViewId="0">
+      <selection activeCell="G30" sqref="G30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2322,7 +2459,7 @@
     <col min="4" max="4" width="101.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A1" s="30" t="s">
         <v>77</v>
       </c>
@@ -2330,29 +2467,29 @@
       <c r="C1" s="30"/>
       <c r="D1" s="31"/>
     </row>
-    <row r="2" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A2" s="32" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B2" s="32"/>
       <c r="C2" s="32"/>
       <c r="D2" s="33"/>
     </row>
-    <row r="3" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="28" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="B3" s="28"/>
       <c r="C3" s="28"/>
       <c r="D3" s="29"/>
     </row>
-    <row r="4" spans="1:4" ht="124.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:5" ht="124.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="28"/>
       <c r="B4" s="28"/>
       <c r="C4" s="28"/>
       <c r="D4" s="29"/>
     </row>
-    <row r="5" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:5" ht="37.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="28" t="s">
         <v>388</v>
       </c>
@@ -2360,7 +2497,7 @@
       <c r="C5" s="28"/>
       <c r="D5" s="29"/>
     </row>
-    <row r="6" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="28" t="s">
         <v>301</v>
       </c>
@@ -2368,7 +2505,7 @@
       <c r="C6" s="28"/>
       <c r="D6" s="29"/>
     </row>
-    <row r="7" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="28" t="s">
         <v>87</v>
       </c>
@@ -2376,14 +2513,14 @@
       <c r="C7" s="28"/>
       <c r="D7" s="29"/>
     </row>
-    <row r="8" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
       <c r="D8" s="2"/>
     </row>
-    <row r="9" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A9" s="13" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>0</v>
@@ -2395,7 +2532,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A10" s="13">
         <v>1</v>
       </c>
@@ -2403,13 +2540,16 @@
         <v>3</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="D10" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="E10" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A11" s="13">
         <v>2</v>
       </c>
@@ -2422,8 +2562,11 @@
       <c r="D11" s="4" t="s">
         <v>387</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="E11" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A12" s="13">
         <v>3</v>
       </c>
@@ -2436,8 +2579,11 @@
       <c r="D12" s="4" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="E12" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A13" s="13">
         <v>4</v>
       </c>
@@ -2450,8 +2596,11 @@
       <c r="D13" s="4" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="E13" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A14" s="13">
         <v>5</v>
       </c>
@@ -2464,8 +2613,11 @@
       <c r="D14" s="4" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="E14" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A15" s="13">
         <v>6</v>
       </c>
@@ -2478,8 +2630,11 @@
       <c r="D15" s="4" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" ht="396.75" x14ac:dyDescent="0.3">
+      <c r="E15" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="396.75" x14ac:dyDescent="0.3">
       <c r="A16" s="13">
         <v>7</v>
       </c>
@@ -2487,13 +2642,16 @@
         <v>17</v>
       </c>
       <c r="C16" s="20" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="D16" s="18" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
+        <v>452</v>
+      </c>
+      <c r="E16" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A17" s="13">
         <v>8</v>
       </c>
@@ -2506,8 +2664,11 @@
       <c r="D17" s="4" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="E17" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A18" s="13">
         <v>9</v>
       </c>
@@ -2520,8 +2681,11 @@
       <c r="D18" s="4" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="E18" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A19" s="13">
         <v>10</v>
       </c>
@@ -2534,8 +2698,11 @@
       <c r="D19" s="4" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="E19" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A20" s="13">
         <v>11</v>
       </c>
@@ -2548,8 +2715,11 @@
       <c r="D20" s="4" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="E20" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A21" s="13">
         <v>12</v>
       </c>
@@ -2562,8 +2732,11 @@
       <c r="D21" s="4" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="E21" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A22" s="13">
         <v>13</v>
       </c>
@@ -2576,8 +2749,11 @@
       <c r="D22" s="4" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="E22" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A23" s="13">
         <v>14</v>
       </c>
@@ -2590,8 +2766,11 @@
       <c r="D23" s="4" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="E23" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A24" s="13">
         <v>15</v>
       </c>
@@ -2604,8 +2783,11 @@
       <c r="D24" s="4" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="E24" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A25" s="13">
         <v>16</v>
       </c>
@@ -2618,8 +2800,11 @@
       <c r="D25" s="4" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="E25" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A26" s="13">
         <v>17</v>
       </c>
@@ -2632,8 +2817,11 @@
       <c r="D26" s="4" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="E26" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A27" s="13">
         <v>18</v>
       </c>
@@ -2646,8 +2834,11 @@
       <c r="D27" s="4" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="E27" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A28" s="13">
         <v>19</v>
       </c>
@@ -2660,8 +2851,11 @@
       <c r="D28" s="4" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="29" spans="1:4" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E28" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="13">
         <v>20</v>
       </c>
@@ -2674,8 +2868,11 @@
       <c r="D29" s="5" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="30" spans="1:4" ht="172.5" x14ac:dyDescent="0.3">
+      <c r="E29" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="172.5" x14ac:dyDescent="0.3">
       <c r="A30" s="13">
         <v>21</v>
       </c>
@@ -2683,13 +2880,16 @@
         <v>46</v>
       </c>
       <c r="C30" s="21" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="D30" s="5" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="31" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="E30" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A31" s="13">
         <v>22</v>
       </c>
@@ -2702,8 +2902,11 @@
       <c r="D31" s="4" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="32" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="E31" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A32" s="13">
         <v>23</v>
       </c>
@@ -2711,13 +2914,16 @@
         <v>50</v>
       </c>
       <c r="C32" s="21" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="D32" s="4" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="33" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="E32" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A33" s="13">
         <v>24</v>
       </c>
@@ -2725,13 +2931,16 @@
         <v>51</v>
       </c>
       <c r="C33" s="21" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="D33" s="4" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="34" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="E33" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A34" s="13">
         <v>25</v>
       </c>
@@ -2744,8 +2953,11 @@
       <c r="D34" s="4" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="35" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="E34" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A35" s="13">
         <v>26</v>
       </c>
@@ -2758,8 +2970,11 @@
       <c r="D35" s="4" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="36" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="E35" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A36" s="13">
         <v>27</v>
       </c>
@@ -2772,8 +2987,11 @@
       <c r="D36" s="4" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="37" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="E36" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A37" s="13">
         <v>28</v>
       </c>
@@ -2786,8 +3004,11 @@
       <c r="D37" s="4" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="38" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="E37" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A38" s="13">
         <v>29</v>
       </c>
@@ -2800,8 +3021,11 @@
       <c r="D38" s="4" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="39" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="E38" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A39" s="13">
         <v>30</v>
       </c>
@@ -2814,8 +3038,11 @@
       <c r="D39" s="4" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="40" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="E39" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A40" s="13">
         <v>31</v>
       </c>
@@ -2828,8 +3055,11 @@
       <c r="D40" s="4" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="41" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="E40" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A41" s="13">
         <v>32</v>
       </c>
@@ -2842,8 +3072,11 @@
       <c r="D41" s="4" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="42" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="E41" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A42" s="13">
         <v>33</v>
       </c>
@@ -2856,8 +3089,11 @@
       <c r="D42" s="4" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="43" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="E42" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A43" s="13">
         <v>34</v>
       </c>
@@ -2870,8 +3106,11 @@
       <c r="D43" s="4" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="44" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="E43" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A44" s="13">
         <v>35</v>
       </c>
@@ -2884,8 +3123,11 @@
       <c r="D44" s="4" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="45" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="E44" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A45" s="13">
         <v>36</v>
       </c>
@@ -2898,8 +3140,11 @@
       <c r="D45" s="4" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="46" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="E45" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A46" s="13">
         <v>37</v>
       </c>
@@ -2912,8 +3157,11 @@
       <c r="D46" s="4" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="47" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="E46" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A47" s="13">
         <v>38</v>
       </c>
@@ -2926,8 +3174,11 @@
       <c r="D47" s="4" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="48" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="E47" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A48" s="13">
         <v>39</v>
       </c>
@@ -2940,8 +3191,11 @@
       <c r="D48" s="4" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="49" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="E48" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A49" s="13">
         <v>40</v>
       </c>
@@ -2954,8 +3208,11 @@
       <c r="D49" s="4" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="50" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="E49" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A50" s="13">
         <v>41</v>
       </c>
@@ -2968,8 +3225,11 @@
       <c r="D50" s="4" t="s">
         <v>223</v>
       </c>
-    </row>
-    <row r="51" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="E50" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A51" s="13">
         <v>42</v>
       </c>
@@ -2982,8 +3242,11 @@
       <c r="D51" s="22" t="s">
         <v>386</v>
       </c>
-    </row>
-    <row r="52" spans="1:4" ht="51.75" x14ac:dyDescent="0.3">
+      <c r="E51" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" ht="51.75" x14ac:dyDescent="0.3">
       <c r="A52" s="13">
         <v>43</v>
       </c>
@@ -2994,10 +3257,13 @@
         <v>18</v>
       </c>
       <c r="D52" s="18" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
+        <v>438</v>
+      </c>
+      <c r="E52" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A53" s="13">
         <v>44</v>
       </c>
@@ -3010,8 +3276,11 @@
       <c r="D53" s="3" t="s">
         <v>368</v>
       </c>
-    </row>
-    <row r="54" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="E53" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A54" s="13">
         <v>45</v>
       </c>
@@ -3024,8 +3293,11 @@
       <c r="D54" s="3" t="s">
         <v>364</v>
       </c>
-    </row>
-    <row r="55" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="E54" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A55" s="13">
         <v>46</v>
       </c>
@@ -3039,7 +3311,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="56" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A56" s="13">
         <v>47</v>
       </c>
@@ -3053,7 +3325,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="57" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A57" s="13">
         <v>48</v>
       </c>
@@ -3065,7 +3337,7 @@
       </c>
       <c r="D57" s="27"/>
     </row>
-    <row r="58" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A58" s="13">
         <v>49</v>
       </c>
@@ -3079,88 +3351,88 @@
         <v>393</v>
       </c>
     </row>
-    <row r="59" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A59" s="13">
         <v>50</v>
       </c>
       <c r="B59" s="14" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C59" s="3" t="s">
         <v>295</v>
       </c>
       <c r="D59" s="14" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A60" s="13">
         <v>51</v>
       </c>
       <c r="B60" s="14" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="C60" s="3" t="s">
         <v>295</v>
       </c>
       <c r="D60" s="14" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A61" s="13">
         <v>52</v>
       </c>
       <c r="B61" s="14" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="C61" s="3" t="s">
         <v>52</v>
       </c>
       <c r="D61" s="14" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A62" s="13">
         <v>53</v>
       </c>
       <c r="B62" s="20" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="C62" s="21" t="s">
         <v>222</v>
       </c>
       <c r="D62" s="20" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A63" s="13">
         <v>54</v>
       </c>
       <c r="B63" s="20" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="C63" s="21" t="s">
         <v>222</v>
       </c>
       <c r="D63" s="20" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A64" s="13">
         <v>55</v>
       </c>
       <c r="B64" s="14" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C64" s="3" t="s">
         <v>222</v>
       </c>
       <c r="D64" s="14" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="65" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
@@ -3168,13 +3440,13 @@
         <v>56</v>
       </c>
       <c r="B65" s="14" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="C65" s="3" t="s">
         <v>222</v>
       </c>
       <c r="D65" s="14" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="66" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
@@ -3182,13 +3454,13 @@
         <v>57</v>
       </c>
       <c r="B66" s="14" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C66" s="3" t="s">
         <v>222</v>
       </c>
       <c r="D66" s="14" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="67" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
@@ -3196,13 +3468,13 @@
         <v>58</v>
       </c>
       <c r="B67" s="14" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="C67" s="3" t="s">
         <v>222</v>
       </c>
       <c r="D67" s="14" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
     <row r="68" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
@@ -3210,13 +3482,13 @@
         <v>59</v>
       </c>
       <c r="B68" s="14" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="C68" s="3" t="s">
         <v>222</v>
       </c>
       <c r="D68" s="14" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="69" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
@@ -3224,13 +3496,13 @@
         <v>60</v>
       </c>
       <c r="B69" s="14" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="C69" s="3" t="s">
         <v>222</v>
       </c>
       <c r="D69" s="14" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="70" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
@@ -3238,13 +3510,13 @@
         <v>61</v>
       </c>
       <c r="B70" s="14" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="C70" s="3" t="s">
         <v>222</v>
       </c>
       <c r="D70" s="14" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="71" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
@@ -3252,13 +3524,13 @@
         <v>62</v>
       </c>
       <c r="B71" s="14" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="C71" s="3" t="s">
         <v>222</v>
       </c>
       <c r="D71" s="14" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
   </sheetData>
@@ -3299,7 +3571,7 @@
         <v>303</v>
       </c>
       <c r="C1" s="19" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="34.5" x14ac:dyDescent="0.15">
@@ -4122,7 +4394,7 @@
     </row>
     <row r="102" spans="1:3" ht="34.5" x14ac:dyDescent="0.15">
       <c r="A102" s="23" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B102" s="23">
         <v>90343655</v>
@@ -4130,7 +4402,7 @@
     </row>
     <row r="103" spans="1:3" ht="34.5" x14ac:dyDescent="0.15">
       <c r="A103" s="23" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B103" s="23">
         <v>90343654</v>
@@ -4138,7 +4410,7 @@
     </row>
     <row r="104" spans="1:3" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A104" s="23" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B104" s="23">
         <v>90343654</v>
@@ -4146,7 +4418,7 @@
     </row>
     <row r="105" spans="1:3" ht="34.5" x14ac:dyDescent="0.15">
       <c r="A105" s="23" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B105" s="23">
         <v>90311463</v>
@@ -4154,7 +4426,7 @@
     </row>
     <row r="106" spans="1:3" ht="34.5" x14ac:dyDescent="0.15">
       <c r="A106" s="23" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B106" s="23">
         <v>90311462</v>
@@ -4162,7 +4434,7 @@
     </row>
     <row r="107" spans="1:3" ht="35.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A107" s="23" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B107" s="23">
         <v>90343716</v>
@@ -4170,7 +4442,7 @@
     </row>
     <row r="108" spans="1:3" ht="35.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A108" s="23" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B108" s="23">
         <v>90345874</v>
@@ -4179,7 +4451,7 @@
     </row>
     <row r="109" spans="1:3" ht="35.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A109" s="23" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B109" s="23">
         <v>90345873</v>
@@ -4188,7 +4460,7 @@
     </row>
     <row r="110" spans="1:3" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A110" s="23" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="B110" s="23">
         <v>90284307</v>
@@ -4197,7 +4469,7 @@
     </row>
     <row r="111" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A111" s="23" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B111" s="23">
         <v>90284309</v>
@@ -4219,8 +4491,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C202"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="B171" sqref="B171"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4246,7 +4518,7 @@
         <v>62</v>
       </c>
       <c r="B2" s="25" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C2" s="24"/>
     </row>

--- a/work/2I&SMA产品接口规范@v2.4-20180119.xlsx
+++ b/work/2I&SMA产品接口规范@v2.4-20180119.xlsx
@@ -15,7 +15,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">产品编码!#REF!</definedName>
   </definedNames>
-  <calcPr calcId="152511" concurrentCalc="0"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -2448,8 +2448,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B22" workbookViewId="0">
-      <selection activeCell="G30" sqref="G30"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="F52" sqref="F52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>

--- a/work/2I&SMA产品接口规范@v2.4-20180119.xlsx
+++ b/work/2I&SMA产品接口规范@v2.4-20180119.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="2I接口文件" sheetId="3" r:id="rId1"/>
@@ -1038,9 +1038,6 @@
   </si>
   <si>
     <t>腾讯音乐小王卡</t>
-  </si>
-  <si>
-    <t>腾讯大王卡</t>
   </si>
   <si>
     <t>腾讯天王卡</t>
@@ -1819,6 +1816,10 @@
   </si>
   <si>
     <t>is_valid_order          string                  是否有效订单(是/否) 有效订单：在线支付已支付，货到付款未退单</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>腾讯大王卡</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -2448,7 +2449,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+    <sheetView topLeftCell="A31" workbookViewId="0">
       <selection activeCell="F52" sqref="F52"/>
     </sheetView>
   </sheetViews>
@@ -2469,7 +2470,7 @@
     </row>
     <row r="2" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A2" s="32" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B2" s="32"/>
       <c r="C2" s="32"/>
@@ -2477,7 +2478,7 @@
     </row>
     <row r="3" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="28" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B3" s="28"/>
       <c r="C3" s="28"/>
@@ -2491,7 +2492,7 @@
     </row>
     <row r="5" spans="1:5" ht="37.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="28" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B5" s="28"/>
       <c r="C5" s="28"/>
@@ -2520,7 +2521,7 @@
     </row>
     <row r="9" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A9" s="13" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>0</v>
@@ -2540,13 +2541,13 @@
         <v>3</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="D10" s="4" t="s">
         <v>4</v>
       </c>
       <c r="E10" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
@@ -2560,10 +2561,10 @@
         <v>6</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="E11" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
@@ -2580,7 +2581,7 @@
         <v>9</v>
       </c>
       <c r="E12" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
@@ -2597,7 +2598,7 @@
         <v>11</v>
       </c>
       <c r="E13" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
@@ -2614,7 +2615,7 @@
         <v>14</v>
       </c>
       <c r="E14" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
@@ -2631,7 +2632,7 @@
         <v>16</v>
       </c>
       <c r="E15" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="396.75" x14ac:dyDescent="0.3">
@@ -2642,13 +2643,13 @@
         <v>17</v>
       </c>
       <c r="C16" s="20" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="D16" s="18" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="E16" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
@@ -2665,7 +2666,7 @@
         <v>21</v>
       </c>
       <c r="E17" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
@@ -2682,7 +2683,7 @@
         <v>24</v>
       </c>
       <c r="E18" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
@@ -2699,7 +2700,7 @@
         <v>27</v>
       </c>
       <c r="E19" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
@@ -2716,7 +2717,7 @@
         <v>30</v>
       </c>
       <c r="E20" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
@@ -2733,7 +2734,7 @@
         <v>33</v>
       </c>
       <c r="E21" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
@@ -2750,7 +2751,7 @@
         <v>34</v>
       </c>
       <c r="E22" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
@@ -2767,7 +2768,7 @@
         <v>35</v>
       </c>
       <c r="E23" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
@@ -2784,7 +2785,7 @@
         <v>37</v>
       </c>
       <c r="E24" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
@@ -2801,7 +2802,7 @@
         <v>38</v>
       </c>
       <c r="E25" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
@@ -2818,7 +2819,7 @@
         <v>40</v>
       </c>
       <c r="E26" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
@@ -2835,7 +2836,7 @@
         <v>42</v>
       </c>
       <c r="E27" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
@@ -2852,7 +2853,7 @@
         <v>44</v>
       </c>
       <c r="E28" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -2869,7 +2870,7 @@
         <v>78</v>
       </c>
       <c r="E29" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="172.5" x14ac:dyDescent="0.3">
@@ -2880,13 +2881,13 @@
         <v>46</v>
       </c>
       <c r="C30" s="21" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="D30" s="5" t="s">
         <v>47</v>
       </c>
       <c r="E30" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
@@ -2903,7 +2904,7 @@
         <v>49</v>
       </c>
       <c r="E31" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
@@ -2914,13 +2915,13 @@
         <v>50</v>
       </c>
       <c r="C32" s="21" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="D32" s="4" t="s">
         <v>79</v>
       </c>
       <c r="E32" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="33" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
@@ -2931,13 +2932,13 @@
         <v>51</v>
       </c>
       <c r="C33" s="21" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="D33" s="4" t="s">
         <v>53</v>
       </c>
       <c r="E33" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
     </row>
     <row r="34" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
@@ -2954,7 +2955,7 @@
         <v>54</v>
       </c>
       <c r="E34" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="35" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
@@ -2971,7 +2972,7 @@
         <v>80</v>
       </c>
       <c r="E35" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="36" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
@@ -2988,7 +2989,7 @@
         <v>56</v>
       </c>
       <c r="E36" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="37" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
@@ -3005,7 +3006,7 @@
         <v>58</v>
       </c>
       <c r="E37" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="38" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
@@ -3022,7 +3023,7 @@
         <v>59</v>
       </c>
       <c r="E38" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
     </row>
     <row r="39" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
@@ -3039,7 +3040,7 @@
         <v>61</v>
       </c>
       <c r="E39" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="40" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
@@ -3056,7 +3057,7 @@
         <v>63</v>
       </c>
       <c r="E40" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
     <row r="41" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
@@ -3073,7 +3074,7 @@
         <v>65</v>
       </c>
       <c r="E41" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
     </row>
     <row r="42" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
@@ -3090,7 +3091,7 @@
         <v>67</v>
       </c>
       <c r="E42" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
     </row>
     <row r="43" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
@@ -3107,7 +3108,7 @@
         <v>69</v>
       </c>
       <c r="E43" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="44" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
@@ -3124,7 +3125,7 @@
         <v>71</v>
       </c>
       <c r="E44" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
     <row r="45" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
@@ -3141,7 +3142,7 @@
         <v>72</v>
       </c>
       <c r="E45" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="46" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
@@ -3158,7 +3159,7 @@
         <v>73</v>
       </c>
       <c r="E46" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
     </row>
     <row r="47" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
@@ -3175,7 +3176,7 @@
         <v>76</v>
       </c>
       <c r="E47" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="48" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
@@ -3192,7 +3193,7 @@
         <v>88</v>
       </c>
       <c r="E48" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="49" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
@@ -3209,7 +3210,7 @@
         <v>82</v>
       </c>
       <c r="E49" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
     </row>
     <row r="50" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
@@ -3217,7 +3218,7 @@
         <v>41</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C50" s="4" t="s">
         <v>222</v>
@@ -3226,7 +3227,7 @@
         <v>223</v>
       </c>
       <c r="E50" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
     </row>
     <row r="51" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
@@ -3234,16 +3235,16 @@
         <v>42</v>
       </c>
       <c r="B51" s="22" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C51" s="22" t="s">
         <v>84</v>
       </c>
       <c r="D51" s="22" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="E51" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
     </row>
     <row r="52" spans="1:5" ht="51.75" x14ac:dyDescent="0.3">
@@ -3251,16 +3252,16 @@
         <v>43</v>
       </c>
       <c r="B52" s="22" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C52" s="22" t="s">
         <v>18</v>
       </c>
       <c r="D52" s="18" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="E52" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="53" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
@@ -3274,10 +3275,10 @@
         <v>295</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="E53" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
     </row>
     <row r="54" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
@@ -3285,16 +3286,16 @@
         <v>45</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C54" s="15" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="E54" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
     </row>
     <row r="55" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
@@ -3302,13 +3303,13 @@
         <v>46</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C55" s="3" t="s">
         <v>222</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="56" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
@@ -3316,13 +3317,13 @@
         <v>47</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C56" s="15" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="D56" s="27" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="57" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
@@ -3330,7 +3331,7 @@
         <v>48</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C57" s="3" t="s">
         <v>222</v>
@@ -3342,13 +3343,13 @@
         <v>49</v>
       </c>
       <c r="B58" s="22" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C58" s="4" t="s">
         <v>295</v>
       </c>
       <c r="D58" s="22" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="59" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
@@ -3356,13 +3357,13 @@
         <v>50</v>
       </c>
       <c r="B59" s="14" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="C59" s="3" t="s">
         <v>295</v>
       </c>
       <c r="D59" s="14" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="60" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
@@ -3370,13 +3371,13 @@
         <v>51</v>
       </c>
       <c r="B60" s="14" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C60" s="3" t="s">
         <v>295</v>
       </c>
       <c r="D60" s="14" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
     </row>
     <row r="61" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
@@ -3384,13 +3385,13 @@
         <v>52</v>
       </c>
       <c r="B61" s="14" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="C61" s="3" t="s">
         <v>52</v>
       </c>
       <c r="D61" s="14" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
     <row r="62" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
@@ -3398,13 +3399,13 @@
         <v>53</v>
       </c>
       <c r="B62" s="20" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="C62" s="21" t="s">
         <v>222</v>
       </c>
       <c r="D62" s="20" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="63" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
@@ -3412,13 +3413,13 @@
         <v>54</v>
       </c>
       <c r="B63" s="20" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="C63" s="21" t="s">
         <v>222</v>
       </c>
       <c r="D63" s="20" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="64" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
@@ -3426,13 +3427,13 @@
         <v>55</v>
       </c>
       <c r="B64" s="14" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="C64" s="3" t="s">
         <v>222</v>
       </c>
       <c r="D64" s="14" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="65" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
@@ -3440,13 +3441,13 @@
         <v>56</v>
       </c>
       <c r="B65" s="14" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C65" s="3" t="s">
         <v>222</v>
       </c>
       <c r="D65" s="14" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="66" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
@@ -3454,13 +3455,13 @@
         <v>57</v>
       </c>
       <c r="B66" s="14" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="C66" s="3" t="s">
         <v>222</v>
       </c>
       <c r="D66" s="14" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
     </row>
     <row r="67" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
@@ -3468,13 +3469,13 @@
         <v>58</v>
       </c>
       <c r="B67" s="14" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C67" s="3" t="s">
         <v>222</v>
       </c>
       <c r="D67" s="14" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="68" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
@@ -3482,13 +3483,13 @@
         <v>59</v>
       </c>
       <c r="B68" s="14" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="C68" s="3" t="s">
         <v>222</v>
       </c>
       <c r="D68" s="14" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
     <row r="69" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
@@ -3496,13 +3497,13 @@
         <v>60</v>
       </c>
       <c r="B69" s="14" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="C69" s="3" t="s">
         <v>222</v>
       </c>
       <c r="D69" s="14" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="70" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
@@ -3510,13 +3511,13 @@
         <v>61</v>
       </c>
       <c r="B70" s="14" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="C70" s="3" t="s">
         <v>222</v>
       </c>
       <c r="D70" s="14" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="71" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
@@ -3524,13 +3525,13 @@
         <v>62</v>
       </c>
       <c r="B71" s="14" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="C71" s="3" t="s">
         <v>222</v>
       </c>
       <c r="D71" s="14" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
   </sheetData>
@@ -3553,8 +3554,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C112"/>
   <sheetViews>
-    <sheetView topLeftCell="A102" workbookViewId="0">
-      <selection activeCell="D108" sqref="D108"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3571,7 +3572,7 @@
         <v>303</v>
       </c>
       <c r="C1" s="19" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="34.5" x14ac:dyDescent="0.15">
@@ -3592,7 +3593,7 @@
     </row>
     <row r="4" spans="1:3" ht="34.5" x14ac:dyDescent="0.15">
       <c r="A4" s="23" t="s">
-        <v>306</v>
+        <v>497</v>
       </c>
       <c r="B4" s="23">
         <v>90063345</v>
@@ -3600,7 +3601,7 @@
     </row>
     <row r="5" spans="1:3" ht="34.5" x14ac:dyDescent="0.15">
       <c r="A5" s="23" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B5" s="23">
         <v>90155946</v>
@@ -3608,7 +3609,7 @@
     </row>
     <row r="6" spans="1:3" ht="34.5" x14ac:dyDescent="0.15">
       <c r="A6" s="23" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B6" s="23">
         <v>90065147</v>
@@ -3616,7 +3617,7 @@
     </row>
     <row r="7" spans="1:3" ht="34.5" x14ac:dyDescent="0.15">
       <c r="A7" s="23" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B7" s="23">
         <v>90065148</v>
@@ -3624,7 +3625,7 @@
     </row>
     <row r="8" spans="1:3" ht="34.5" x14ac:dyDescent="0.15">
       <c r="A8" s="23" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B8" s="23">
         <v>90138402</v>
@@ -3632,7 +3633,7 @@
     </row>
     <row r="9" spans="1:3" ht="34.5" x14ac:dyDescent="0.15">
       <c r="A9" s="23" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B9" s="23">
         <v>90138403</v>
@@ -3640,7 +3641,7 @@
     </row>
     <row r="10" spans="1:3" ht="34.5" x14ac:dyDescent="0.15">
       <c r="A10" s="23" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B10" s="23">
         <v>90126144</v>
@@ -3648,7 +3649,7 @@
     </row>
     <row r="11" spans="1:3" ht="34.5" x14ac:dyDescent="0.15">
       <c r="A11" s="23" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B11" s="23">
         <v>90126163</v>
@@ -3656,7 +3657,7 @@
     </row>
     <row r="12" spans="1:3" ht="51.75" x14ac:dyDescent="0.15">
       <c r="A12" s="23" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B12" s="23">
         <v>90126182</v>
@@ -3664,7 +3665,7 @@
     </row>
     <row r="13" spans="1:3" ht="34.5" x14ac:dyDescent="0.15">
       <c r="A13" s="23" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B13" s="23">
         <v>90109916</v>
@@ -3672,7 +3673,7 @@
     </row>
     <row r="14" spans="1:3" ht="34.5" x14ac:dyDescent="0.15">
       <c r="A14" s="23" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B14" s="23">
         <v>90109906</v>
@@ -3680,7 +3681,7 @@
     </row>
     <row r="15" spans="1:3" ht="34.5" x14ac:dyDescent="0.15">
       <c r="A15" s="23" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B15" s="23">
         <v>90127327</v>
@@ -3688,7 +3689,7 @@
     </row>
     <row r="16" spans="1:3" ht="34.5" x14ac:dyDescent="0.15">
       <c r="A16" s="23" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B16" s="23">
         <v>90127328</v>
@@ -3696,7 +3697,7 @@
     </row>
     <row r="17" spans="1:2" ht="34.5" x14ac:dyDescent="0.15">
       <c r="A17" s="23" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B17" s="23">
         <v>90157593</v>
@@ -3704,7 +3705,7 @@
     </row>
     <row r="18" spans="1:2" ht="34.5" x14ac:dyDescent="0.15">
       <c r="A18" s="23" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B18" s="23">
         <v>90129473</v>
@@ -3712,7 +3713,7 @@
     </row>
     <row r="19" spans="1:2" ht="34.5" x14ac:dyDescent="0.15">
       <c r="A19" s="23" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B19" s="23">
         <v>90129503</v>
@@ -3720,7 +3721,7 @@
     </row>
     <row r="20" spans="1:2" ht="34.5" x14ac:dyDescent="0.15">
       <c r="A20" s="23" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B20" s="23">
         <v>90151622</v>
@@ -3728,7 +3729,7 @@
     </row>
     <row r="21" spans="1:2" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A21" s="23" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B21" s="23">
         <v>90109876</v>
@@ -3736,7 +3737,7 @@
     </row>
     <row r="22" spans="1:2" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A22" s="23" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B22" s="23">
         <v>90165530</v>
@@ -3744,7 +3745,7 @@
     </row>
     <row r="23" spans="1:2" ht="34.5" x14ac:dyDescent="0.15">
       <c r="A23" s="23" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B23" s="23">
         <v>90163362</v>
@@ -3752,7 +3753,7 @@
     </row>
     <row r="24" spans="1:2" ht="34.5" x14ac:dyDescent="0.15">
       <c r="A24" s="23" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B24" s="23">
         <v>90151621</v>
@@ -3760,7 +3761,7 @@
     </row>
     <row r="25" spans="1:2" ht="34.5" x14ac:dyDescent="0.15">
       <c r="A25" s="23" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B25" s="23">
         <v>90151624</v>
@@ -3768,7 +3769,7 @@
     </row>
     <row r="26" spans="1:2" ht="34.5" x14ac:dyDescent="0.15">
       <c r="A26" s="23" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B26" s="23">
         <v>90155336</v>
@@ -3776,7 +3777,7 @@
     </row>
     <row r="27" spans="1:2" ht="34.5" x14ac:dyDescent="0.15">
       <c r="A27" s="23" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B27" s="23">
         <v>90155361</v>
@@ -3784,7 +3785,7 @@
     </row>
     <row r="28" spans="1:2" ht="34.5" x14ac:dyDescent="0.15">
       <c r="A28" s="23" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B28" s="23">
         <v>90155482</v>
@@ -3792,7 +3793,7 @@
     </row>
     <row r="29" spans="1:2" ht="34.5" x14ac:dyDescent="0.15">
       <c r="A29" s="23" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B29" s="23">
         <v>90163378</v>
@@ -3800,7 +3801,7 @@
     </row>
     <row r="30" spans="1:2" ht="34.5" x14ac:dyDescent="0.15">
       <c r="A30" s="23" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B30" s="23">
         <v>90163396</v>
@@ -3808,7 +3809,7 @@
     </row>
     <row r="31" spans="1:2" ht="34.5" x14ac:dyDescent="0.15">
       <c r="A31" s="23" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B31" s="23">
         <v>90157638</v>
@@ -3816,7 +3817,7 @@
     </row>
     <row r="32" spans="1:2" ht="34.5" x14ac:dyDescent="0.15">
       <c r="A32" s="23" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B32" s="23">
         <v>90157639</v>
@@ -3824,7 +3825,7 @@
     </row>
     <row r="33" spans="1:2" ht="34.5" x14ac:dyDescent="0.15">
       <c r="A33" s="23" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B33" s="23">
         <v>90157799</v>
@@ -3832,7 +3833,7 @@
     </row>
     <row r="34" spans="1:2" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A34" s="23" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B34" s="23">
         <v>90166048</v>
@@ -3840,7 +3841,7 @@
     </row>
     <row r="35" spans="1:2" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A35" s="23" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B35" s="23">
         <v>90163731</v>
@@ -3848,7 +3849,7 @@
     </row>
     <row r="36" spans="1:2" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A36" s="23" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B36" s="23">
         <v>90163729</v>
@@ -3856,7 +3857,7 @@
     </row>
     <row r="37" spans="1:2" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A37" s="23" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B37" s="23">
         <v>90163763</v>
@@ -3864,7 +3865,7 @@
     </row>
     <row r="38" spans="1:2" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A38" s="23" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B38" s="23">
         <v>90163777</v>
@@ -3872,7 +3873,7 @@
     </row>
     <row r="39" spans="1:2" ht="34.5" x14ac:dyDescent="0.15">
       <c r="A39" s="23" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B39" s="23">
         <v>90199660</v>
@@ -3880,7 +3881,7 @@
     </row>
     <row r="40" spans="1:2" ht="34.5" x14ac:dyDescent="0.15">
       <c r="A40" s="23" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B40" s="23">
         <v>90201356</v>
@@ -3888,7 +3889,7 @@
     </row>
     <row r="41" spans="1:2" ht="34.5" x14ac:dyDescent="0.15">
       <c r="A41" s="23" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B41" s="23">
         <v>90199605</v>
@@ -3896,7 +3897,7 @@
     </row>
     <row r="42" spans="1:2" ht="34.5" x14ac:dyDescent="0.15">
       <c r="A42" s="23" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B42" s="23">
         <v>90201357</v>
@@ -3904,7 +3905,7 @@
     </row>
     <row r="43" spans="1:2" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A43" s="23" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B43" s="23">
         <v>90217401</v>
@@ -3912,7 +3913,7 @@
     </row>
     <row r="44" spans="1:2" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A44" s="23" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B44" s="23">
         <v>90217415</v>
@@ -3920,7 +3921,7 @@
     </row>
     <row r="45" spans="1:2" ht="34.5" x14ac:dyDescent="0.15">
       <c r="A45" s="23" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B45" s="23">
         <v>90269363</v>
@@ -3928,7 +3929,7 @@
     </row>
     <row r="46" spans="1:2" ht="34.5" x14ac:dyDescent="0.15">
       <c r="A46" s="23" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B46" s="23">
         <v>90217437</v>
@@ -3936,7 +3937,7 @@
     </row>
     <row r="47" spans="1:2" ht="34.5" x14ac:dyDescent="0.15">
       <c r="A47" s="23" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B47" s="23">
         <v>90217438</v>
@@ -3944,7 +3945,7 @@
     </row>
     <row r="48" spans="1:2" ht="34.5" x14ac:dyDescent="0.15">
       <c r="A48" s="23" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B48" s="23">
         <v>90155336</v>
@@ -3952,7 +3953,7 @@
     </row>
     <row r="49" spans="1:3" ht="34.5" x14ac:dyDescent="0.15">
       <c r="A49" s="23" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B49" s="23">
         <v>90155361</v>
@@ -3960,7 +3961,7 @@
     </row>
     <row r="50" spans="1:3" ht="34.5" x14ac:dyDescent="0.15">
       <c r="A50" s="23" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B50" s="23">
         <v>90063345</v>
@@ -3968,7 +3969,7 @@
     </row>
     <row r="51" spans="1:3" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A51" s="23" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B51" s="23">
         <v>90241894</v>
@@ -3976,7 +3977,7 @@
     </row>
     <row r="52" spans="1:3" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A52" s="23" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B52" s="23">
         <v>90241897</v>
@@ -3984,7 +3985,7 @@
     </row>
     <row r="53" spans="1:3" ht="34.5" x14ac:dyDescent="0.15">
       <c r="A53" s="23" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B53" s="23">
         <v>90241890</v>
@@ -3992,7 +3993,7 @@
     </row>
     <row r="54" spans="1:3" ht="34.5" x14ac:dyDescent="0.15">
       <c r="A54" s="23" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B54" s="23">
         <v>90249473</v>
@@ -4000,7 +4001,7 @@
     </row>
     <row r="55" spans="1:3" ht="34.5" x14ac:dyDescent="0.15">
       <c r="A55" s="23" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B55" s="23">
         <v>90249474</v>
@@ -4008,7 +4009,7 @@
     </row>
     <row r="56" spans="1:3" ht="34.5" x14ac:dyDescent="0.15">
       <c r="A56" s="23" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B56" s="23">
         <v>90249475</v>
@@ -4016,7 +4017,7 @@
     </row>
     <row r="57" spans="1:3" ht="34.5" x14ac:dyDescent="0.15">
       <c r="A57" s="23" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B57" s="23">
         <v>90165367</v>
@@ -4024,7 +4025,7 @@
     </row>
     <row r="58" spans="1:3" ht="34.5" x14ac:dyDescent="0.15">
       <c r="A58" s="23" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B58" s="23">
         <v>90165365</v>
@@ -4032,7 +4033,7 @@
     </row>
     <row r="59" spans="1:3" ht="34.5" x14ac:dyDescent="0.15">
       <c r="A59" s="23" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B59" s="23">
         <v>90269363</v>
@@ -4040,7 +4041,7 @@
     </row>
     <row r="60" spans="1:3" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A60" s="23" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B60" s="23">
         <v>90063345</v>
@@ -4048,7 +4049,7 @@
     </row>
     <row r="61" spans="1:3" ht="34.5" x14ac:dyDescent="0.15">
       <c r="A61" s="23" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B61" s="23">
         <v>90163362</v>
@@ -4056,7 +4057,7 @@
     </row>
     <row r="62" spans="1:3" ht="34.5" x14ac:dyDescent="0.15">
       <c r="A62" s="23" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B62" s="23">
         <v>90275433</v>
@@ -4064,7 +4065,7 @@
     </row>
     <row r="63" spans="1:3" ht="35.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A63" s="23" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B63" s="23">
         <v>90275428</v>
@@ -4072,7 +4073,7 @@
     </row>
     <row r="64" spans="1:3" ht="35.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A64" s="23" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B64" s="23">
         <v>90165367</v>
@@ -4081,7 +4082,7 @@
     </row>
     <row r="65" spans="1:3" ht="35.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A65" s="23" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B65" s="23">
         <v>90165366</v>
@@ -4090,7 +4091,7 @@
     </row>
     <row r="66" spans="1:3" ht="35.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A66" s="23" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B66" s="23">
         <v>90275413</v>
@@ -4099,7 +4100,7 @@
     </row>
     <row r="67" spans="1:3" ht="35.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A67" s="23" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B67" s="23">
         <v>90275412</v>
@@ -4108,7 +4109,7 @@
     </row>
     <row r="68" spans="1:3" ht="35.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A68" s="23" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B68" s="23">
         <v>90275414</v>
@@ -4117,7 +4118,7 @@
     </row>
     <row r="69" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A69" s="23" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B69" s="23">
         <v>90274148</v>
@@ -4126,7 +4127,7 @@
     </row>
     <row r="70" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A70" s="23" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B70" s="23">
         <v>90274153</v>
@@ -4135,7 +4136,7 @@
     </row>
     <row r="71" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A71" s="23" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B71" s="23">
         <v>90271584</v>
@@ -4144,7 +4145,7 @@
     </row>
     <row r="72" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A72" s="23" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B72" s="23">
         <v>90271583</v>
@@ -4153,7 +4154,7 @@
     </row>
     <row r="73" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A73" s="23" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B73" s="23">
         <v>90271586</v>
@@ -4162,7 +4163,7 @@
     </row>
     <row r="74" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A74" s="23" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B74" s="23">
         <v>90269675</v>
@@ -4171,7 +4172,7 @@
     </row>
     <row r="75" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A75" s="23" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B75" s="23">
         <v>90269674</v>
@@ -4180,7 +4181,7 @@
     </row>
     <row r="76" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A76" s="23" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B76" s="23">
         <v>90275640</v>
@@ -4189,7 +4190,7 @@
     </row>
     <row r="77" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A77" s="23" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B77" s="23">
         <v>90275446</v>
@@ -4198,7 +4199,7 @@
     </row>
     <row r="78" spans="1:3" ht="34.5" x14ac:dyDescent="0.15">
       <c r="A78" s="23" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B78" s="23">
         <v>90265457</v>
@@ -4207,7 +4208,7 @@
     </row>
     <row r="79" spans="1:3" ht="35.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A79" s="23" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B79" s="23">
         <v>90265456</v>
@@ -4216,7 +4217,7 @@
     </row>
     <row r="80" spans="1:3" ht="34.5" x14ac:dyDescent="0.15">
       <c r="A80" s="23" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B80" s="23">
         <v>90281396</v>
@@ -4225,7 +4226,7 @@
     </row>
     <row r="81" spans="1:3" ht="35.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A81" s="23" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B81" s="23">
         <v>90281395</v>
@@ -4234,7 +4235,7 @@
     </row>
     <row r="82" spans="1:3" ht="34.5" x14ac:dyDescent="0.15">
       <c r="A82" s="23" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B82" s="23">
         <v>90281852</v>
@@ -4242,7 +4243,7 @@
     </row>
     <row r="83" spans="1:3" ht="34.5" x14ac:dyDescent="0.15">
       <c r="A83" s="23" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B83" s="23">
         <v>90281852</v>
@@ -4250,7 +4251,7 @@
     </row>
     <row r="84" spans="1:3" ht="34.5" x14ac:dyDescent="0.15">
       <c r="A84" s="23" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B84" s="23">
         <v>90303335</v>
@@ -4258,7 +4259,7 @@
     </row>
     <row r="85" spans="1:3" ht="34.5" x14ac:dyDescent="0.15">
       <c r="A85" s="23" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B85" s="23">
         <v>90303336</v>
@@ -4266,7 +4267,7 @@
     </row>
     <row r="86" spans="1:3" ht="34.5" x14ac:dyDescent="0.15">
       <c r="A86" s="23" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B86" s="23">
         <v>90304421</v>
@@ -4274,7 +4275,7 @@
     </row>
     <row r="87" spans="1:3" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A87" s="23" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B87" s="23">
         <v>90304110</v>
@@ -4282,7 +4283,7 @@
     </row>
     <row r="88" spans="1:3" ht="34.5" x14ac:dyDescent="0.15">
       <c r="A88" s="23" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B88" s="23">
         <v>90304105</v>
@@ -4290,7 +4291,7 @@
     </row>
     <row r="89" spans="1:3" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A89" s="23" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B89" s="23">
         <v>90305357</v>
@@ -4298,7 +4299,7 @@
     </row>
     <row r="90" spans="1:3" ht="34.5" x14ac:dyDescent="0.15">
       <c r="A90" s="23" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B90" s="23">
         <v>90309917</v>
@@ -4306,7 +4307,7 @@
     </row>
     <row r="91" spans="1:3" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A91" s="23" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B91" s="23">
         <v>90284602</v>
@@ -4314,7 +4315,7 @@
     </row>
     <row r="92" spans="1:3" ht="34.5" x14ac:dyDescent="0.15">
       <c r="A92" s="23" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B92" s="23">
         <v>90284600</v>
@@ -4322,15 +4323,15 @@
     </row>
     <row r="93" spans="1:3" ht="69" x14ac:dyDescent="0.15">
       <c r="A93" s="23" t="s">
+        <v>407</v>
+      </c>
+      <c r="B93" s="23" t="s">
         <v>408</v>
-      </c>
-      <c r="B93" s="23" t="s">
-        <v>409</v>
       </c>
     </row>
     <row r="94" spans="1:3" ht="51.75" x14ac:dyDescent="0.15">
       <c r="A94" s="23" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B94" s="23">
         <v>90269363</v>
@@ -4338,7 +4339,7 @@
     </row>
     <row r="95" spans="1:3" ht="51.75" x14ac:dyDescent="0.15">
       <c r="A95" s="23" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B95" s="23">
         <v>90333354</v>
@@ -4346,7 +4347,7 @@
     </row>
     <row r="96" spans="1:3" ht="34.5" x14ac:dyDescent="0.15">
       <c r="A96" s="23" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B96" s="23">
         <v>90331705</v>
@@ -4354,7 +4355,7 @@
     </row>
     <row r="97" spans="1:3" ht="34.5" x14ac:dyDescent="0.15">
       <c r="A97" s="23" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B97" s="23">
         <v>90331774</v>
@@ -4362,7 +4363,7 @@
     </row>
     <row r="98" spans="1:3" ht="34.5" x14ac:dyDescent="0.15">
       <c r="A98" s="23" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="B98" s="23">
         <v>90337593</v>
@@ -4370,7 +4371,7 @@
     </row>
     <row r="99" spans="1:3" ht="34.5" x14ac:dyDescent="0.15">
       <c r="A99" s="23" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B99" s="23">
         <v>90337592</v>
@@ -4378,7 +4379,7 @@
     </row>
     <row r="100" spans="1:3" ht="51.75" x14ac:dyDescent="0.15">
       <c r="A100" s="23" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B100" s="23">
         <v>90269363</v>
@@ -4386,7 +4387,7 @@
     </row>
     <row r="101" spans="1:3" ht="51.75" x14ac:dyDescent="0.15">
       <c r="A101" s="23" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B101" s="23">
         <v>90333354</v>
@@ -4394,7 +4395,7 @@
     </row>
     <row r="102" spans="1:3" ht="34.5" x14ac:dyDescent="0.15">
       <c r="A102" s="23" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B102" s="23">
         <v>90343655</v>
@@ -4402,7 +4403,7 @@
     </row>
     <row r="103" spans="1:3" ht="34.5" x14ac:dyDescent="0.15">
       <c r="A103" s="23" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B103" s="23">
         <v>90343654</v>
@@ -4410,7 +4411,7 @@
     </row>
     <row r="104" spans="1:3" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A104" s="23" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B104" s="23">
         <v>90343654</v>
@@ -4418,7 +4419,7 @@
     </row>
     <row r="105" spans="1:3" ht="34.5" x14ac:dyDescent="0.15">
       <c r="A105" s="23" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B105" s="23">
         <v>90311463</v>
@@ -4426,7 +4427,7 @@
     </row>
     <row r="106" spans="1:3" ht="34.5" x14ac:dyDescent="0.15">
       <c r="A106" s="23" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B106" s="23">
         <v>90311462</v>
@@ -4434,7 +4435,7 @@
     </row>
     <row r="107" spans="1:3" ht="35.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A107" s="23" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="B107" s="23">
         <v>90343716</v>
@@ -4442,7 +4443,7 @@
     </row>
     <row r="108" spans="1:3" ht="35.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A108" s="23" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="B108" s="23">
         <v>90345874</v>
@@ -4451,7 +4452,7 @@
     </row>
     <row r="109" spans="1:3" ht="35.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A109" s="23" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B109" s="23">
         <v>90345873</v>
@@ -4460,7 +4461,7 @@
     </row>
     <row r="110" spans="1:3" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A110" s="23" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B110" s="23">
         <v>90284307</v>
@@ -4469,7 +4470,7 @@
     </row>
     <row r="111" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A111" s="23" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="B111" s="23">
         <v>90284309</v>
@@ -4518,7 +4519,7 @@
         <v>62</v>
       </c>
       <c r="B2" s="25" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="C2" s="24"/>
     </row>
